--- a/data/trans_orig/P32D_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26849</v>
+        <v>26786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50715</v>
+        <v>51747</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1782654237710176</v>
+        <v>0.1782654237710175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1265737108125427</v>
+        <v>0.1262799262491469</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2390877809740225</v>
+        <v>0.2439529851172198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>4560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12149</v>
+        <v>11717</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03969125583774113</v>
+        <v>0.03969125583774112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01441479376731983</v>
+        <v>0.01447405769584863</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1057466172051466</v>
+        <v>0.1019819479488062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -783,19 +783,19 @@
         <v>42374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30554</v>
+        <v>30872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56854</v>
+        <v>56439</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1295788544455149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09343414188760762</v>
+        <v>0.09440705523336861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.173858461721686</v>
+        <v>0.1725897661594867</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>174306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161405</v>
+        <v>160373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>185271</v>
+        <v>185334</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8217345762289825</v>
+        <v>0.8217345762289826</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7609122190259776</v>
+        <v>0.7560470148827805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8734262891874572</v>
+        <v>0.8737200737508534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -833,19 +833,19 @@
         <v>110332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102743</v>
+        <v>103175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113236</v>
+        <v>113229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9603087441622589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.894253382794853</v>
+        <v>0.8980180520511933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855852062326801</v>
+        <v>0.9855259423041514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>307</v>
@@ -854,19 +854,19 @@
         <v>284638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>270158</v>
+        <v>270573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>296458</v>
+        <v>296140</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8704211455544849</v>
+        <v>0.8704211455544848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8261415382783139</v>
+        <v>0.8274102338405134</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9065658581123924</v>
+        <v>0.9055929447666315</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>39813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27517</v>
+        <v>27215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54287</v>
+        <v>53394</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08720103885592048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06026904642338595</v>
+        <v>0.05960690288789514</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1189022330676745</v>
+        <v>0.1169448554810932</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -979,19 +979,19 @@
         <v>12840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7258</v>
+        <v>7088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20526</v>
+        <v>19954</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05255107962708037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02970428838134669</v>
+        <v>0.02900834991580245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08400671095956734</v>
+        <v>0.08166573390948359</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1000,19 +1000,19 @@
         <v>52654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39665</v>
+        <v>40316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70276</v>
+        <v>70567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07512196281496833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05659013822619213</v>
+        <v>0.05751954622508387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1002645476231375</v>
+        <v>0.1006791458783058</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>416758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402284</v>
+        <v>403177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>429054</v>
+        <v>429356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9127989611440794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8810977669323244</v>
+        <v>0.8830551445189062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9397309535766138</v>
+        <v>0.9403930971121043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -1050,19 +1050,19 @@
         <v>231499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>223813</v>
+        <v>224385</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>237081</v>
+        <v>237251</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9474489203729196</v>
+        <v>0.9474489203729198</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9159932890404319</v>
+        <v>0.9183342660905165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9702957116186528</v>
+        <v>0.9709916500841975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>691</v>
@@ -1071,19 +1071,19 @@
         <v>648256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>630634</v>
+        <v>630343</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>661245</v>
+        <v>660594</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9248780371850316</v>
+        <v>0.9248780371850318</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8997354523768624</v>
+        <v>0.8993208541216942</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9434098617738078</v>
+        <v>0.9424804537749158</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>30754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20895</v>
+        <v>20273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46106</v>
+        <v>45050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06087779674317943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04136287431749735</v>
+        <v>0.04013075020209716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0912693467665531</v>
+        <v>0.08917741724966474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1196,19 +1196,19 @@
         <v>18286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11431</v>
+        <v>10772</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30998</v>
+        <v>28299</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06863207429507788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04290479476589811</v>
+        <v>0.04042909217272651</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1163460611614405</v>
+        <v>0.1062162944935003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1217,19 +1217,19 @@
         <v>49039</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36500</v>
+        <v>35804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65457</v>
+        <v>64778</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06355533300096533</v>
+        <v>0.06355533300096534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04730364730138988</v>
+        <v>0.04640166998544733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08483215719948803</v>
+        <v>0.08395269778780493</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>474415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>459063</v>
+        <v>460119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>484274</v>
+        <v>484896</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9391222032568206</v>
+        <v>0.9391222032568207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9087306532334468</v>
+        <v>0.9108225827503355</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9586371256825026</v>
+        <v>0.9598692497979028</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>350</v>
@@ -1267,19 +1267,19 @@
         <v>248146</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>235434</v>
+        <v>238133</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255001</v>
+        <v>255660</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9313679257049221</v>
+        <v>0.931367925704922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8836539388385594</v>
+        <v>0.8937837055064997</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9570952052341017</v>
+        <v>0.9595709078272735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>819</v>
@@ -1288,19 +1288,19 @@
         <v>722562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>706144</v>
+        <v>706823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>735101</v>
+        <v>735797</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9364446669990345</v>
+        <v>0.9364446669990346</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9151678428005114</v>
+        <v>0.9160473022121949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9526963526986102</v>
+        <v>0.9535983300145526</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>53101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39606</v>
+        <v>39488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71333</v>
+        <v>72884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1096858008344493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08181043824882317</v>
+        <v>0.08156700374851374</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1473441808918404</v>
+        <v>0.1505486669594727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1413,19 +1413,19 @@
         <v>27084</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18015</v>
+        <v>18050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40151</v>
+        <v>39597</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09993542236681946</v>
+        <v>0.09993542236681947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06647300127521792</v>
+        <v>0.06660017895513799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1481486474673119</v>
+        <v>0.1461035489330784</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -1434,19 +1434,19 @@
         <v>80186</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62116</v>
+        <v>62637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103061</v>
+        <v>103129</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1061864203846354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08225777513869768</v>
+        <v>0.08294818848127068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1364794706338948</v>
+        <v>0.1365695421986421</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>431022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>412790</v>
+        <v>411239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>444517</v>
+        <v>444635</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8903141991655508</v>
+        <v>0.8903141991655505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8526558191081597</v>
+        <v>0.8494513330405274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9181895617511774</v>
+        <v>0.9184329962514863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -1484,19 +1484,19 @@
         <v>243933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230866</v>
+        <v>231420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>253002</v>
+        <v>252967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9000645776331805</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8518513525326882</v>
+        <v>0.8538964510669197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9335269987247822</v>
+        <v>0.9333998210448619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>737</v>
@@ -1505,19 +1505,19 @@
         <v>674954</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>652079</v>
+        <v>652011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>693024</v>
+        <v>692503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8938135796153646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8635205293661052</v>
+        <v>0.8634304578013577</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9177422248613023</v>
+        <v>0.9170518115187293</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>161482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134604</v>
+        <v>136023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>193537</v>
+        <v>190729</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09739674420392172</v>
+        <v>0.09739674420392173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0811854754134093</v>
+        <v>0.08204112022219648</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1167302483214969</v>
+        <v>0.1150368302719702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -1630,19 +1630,19 @@
         <v>62771</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48596</v>
+        <v>48273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79156</v>
+        <v>80418</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07000319306720189</v>
+        <v>0.07000319306720187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0541948760736076</v>
+        <v>0.05383566890158144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08827690115648289</v>
+        <v>0.08968358216441989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>211</v>
@@ -1651,19 +1651,19 @@
         <v>224253</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>195300</v>
+        <v>192679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>260671</v>
+        <v>255815</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08778166777307185</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07644860225319539</v>
+        <v>0.07542252726023414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1020373799461809</v>
+        <v>0.1001365675364725</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1496500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1464445</v>
+        <v>1467253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1523378</v>
+        <v>1521959</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9026032557960783</v>
+        <v>0.9026032557960784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.883269751678503</v>
+        <v>0.8849631697280299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9188145245865907</v>
+        <v>0.9179588797778037</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1127</v>
@@ -1701,19 +1701,19 @@
         <v>833910</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>817525</v>
+        <v>816263</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>848085</v>
+        <v>848408</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9299968069327983</v>
+        <v>0.9299968069327981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9117230988435171</v>
+        <v>0.9103164178355797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9458051239263924</v>
+        <v>0.9461643310984185</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2554</v>
@@ -1722,19 +1722,19 @@
         <v>2330411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2293993</v>
+        <v>2298849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2359364</v>
+        <v>2361985</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9122183322269282</v>
+        <v>0.9122183322269283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8979626200538184</v>
+        <v>0.8998634324635274</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9235513977468039</v>
+        <v>0.9245774727397659</v>
       </c>
     </row>
     <row r="18">
